--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_19_MultiChartDashboard.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_19_MultiChartDashboard.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="1" r:id="R11ec6aa928c04c43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="1" r:id="R67881fc32af54341"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -370,7 +371,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9020a7a37ce41e6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0c4f730ba774d74"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -400,7 +401,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88ffc5a3583442bd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R727a57bf40e54c66"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -430,7 +431,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1e385dda0ba844aa"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R348017f00bf94978"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -460,7 +461,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a694ee9e89b48e8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7c2216c470a540c7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -542,6 +543,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra27acf8bbbf848e6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44c27f0129304c1a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_19_MultiChartDashboard.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_19_MultiChartDashboard.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="1" r:id="R67881fc32af54341"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="1" r:id="Ra91f32f284734bef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -88,6 +88,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Dashboard'!$B$1:$G$1</c:f>
@@ -181,6 +184,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Dashboard'!$B$1:$G$1</c:f>
@@ -252,6 +262,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Dashboard'!$B$1:$G$1</c:f>
@@ -302,6 +315,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'Dashboard'!$B$2:$G$2</c:f>
@@ -371,7 +387,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0c4f730ba774d74"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R50df57a96431410e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -401,7 +417,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R727a57bf40e54c66"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbb1376d5d0de4061"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,7 +447,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R348017f00bf94978"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf44adb2e105a4a21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -461,7 +477,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7c2216c470a540c7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a316c7d79104b68"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -543,6 +559,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44c27f0129304c1a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R870e24df2f5a4979"/>
 </x:worksheet>
 </file>